--- a/Support Files/woorden.xlsx
+++ b/Support Files/woorden.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklaar\Documents\GitHub\hoi\webpaginaPeriode3\Support Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\webpaginaPeriode3\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882ED764-E1DD-4389-B87B-4561864BAD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49194DC6-59BB-4CFE-A3DD-A2BEA8D0593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDCC4414-B279-4342-87D5-A699203C1B5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDCC4414-B279-4342-87D5-A699203C1B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>woord</t>
   </si>
@@ -137,18 +138,12 @@
     <t>primary</t>
   </si>
   <si>
-    <t>naam</t>
-  </si>
-  <si>
     <t>birthyear</t>
   </si>
   <si>
     <t>deathyear</t>
   </si>
   <si>
-    <t>geboorte</t>
-  </si>
-  <si>
     <t>sterf, overleden, dood</t>
   </si>
   <si>
@@ -200,30 +195,18 @@
     <t>persoon - film</t>
   </si>
   <si>
-    <t>soundmix</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>muziek</t>
-  </si>
-  <si>
     <t>volwassenen</t>
   </si>
   <si>
-    <t>cijfer</t>
-  </si>
-  <si>
     <t>gemiddeld</t>
   </si>
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
     <t>aspect, ratio</t>
   </si>
   <si>
@@ -236,9 +219,6 @@
     <t>company</t>
   </si>
   <si>
-    <t>bedrijf</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -306,6 +286,42 @@
   </si>
   <si>
     <t>dingen cijfers</t>
+  </si>
+  <si>
+    <t>geboorte, geboren</t>
+  </si>
+  <si>
+    <t>land, Nederlands, nederland</t>
+  </si>
+  <si>
+    <t>langst</t>
+  </si>
+  <si>
+    <t>hoogste min</t>
+  </si>
+  <si>
+    <t>budget, duurst</t>
+  </si>
+  <si>
+    <t>opbrengst, opgebracht</t>
+  </si>
+  <si>
+    <t>kortst</t>
+  </si>
+  <si>
+    <t>minste min</t>
+  </si>
+  <si>
+    <t>stemmen, waardering</t>
+  </si>
+  <si>
+    <t>cijfer, waardering</t>
+  </si>
+  <si>
+    <t>bedrijf, bedrijfsnaam</t>
+  </si>
+  <si>
+    <t>naam, acteur, acteurs, actrices, actrice, voornaam, achternaam</t>
   </si>
 </sst>
 </file>
@@ -359,13 +375,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -680,30 +694,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329CFDCA-FEAF-40A1-9084-781E8EA489B2}">
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" customWidth="1"/>
     <col min="16" max="17" width="30.44140625" customWidth="1"/>
     <col min="18" max="18" width="10.44140625" customWidth="1"/>
     <col min="20" max="20" width="20.88671875" customWidth="1"/>
     <col min="21" max="21" width="9.5546875" customWidth="1"/>
     <col min="23" max="23" width="24.77734375" customWidth="1"/>
+    <col min="24" max="24" width="19.77734375" customWidth="1"/>
+    <col min="30" max="30" width="17.21875" customWidth="1"/>
     <col min="32" max="32" width="18.6640625" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" customWidth="1"/>
     <col min="35" max="35" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,41 +764,35 @@
       <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>1</v>
       </c>
-      <c r="AI1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AQ1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -790,50 +802,46 @@
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R2" s="1"/>
       <c r="T2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U2" s="3"/>
-      <c r="W2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AG2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1"/>
-      <c r="AF2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="1"/>
-      <c r="AI2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="1"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -841,76 +849,70 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
-      <c r="R3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -918,74 +920,74 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>64</v>
       </c>
       <c r="AG4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AG6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -993,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1001,23 +1003,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1025,237 +1027,145 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Support Files/woorden.xlsx
+++ b/Support Files/woorden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\webpaginaPeriode3\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49194DC6-59BB-4CFE-A3DD-A2BEA8D0593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE4909-99BD-4E8B-995A-E50B9D43E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDCC4414-B279-4342-87D5-A699203C1B5A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>woord</t>
   </si>
@@ -322,6 +321,63 @@
   </si>
   <si>
     <t>naam, acteur, acteurs, actrices, actrice, voornaam, achternaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welke </t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>&lt;&gt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;= </t>
+  </si>
+  <si>
+    <t>gemiddelde</t>
+  </si>
+  <si>
+    <t>episondenr</t>
+  </si>
+  <si>
+    <t>opening_worldwide</t>
+  </si>
+  <si>
+    <t>*ratings</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>hoger</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>groter</t>
+  </si>
+  <si>
+    <t>kleiner</t>
+  </si>
+  <si>
+    <t>minder</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>gelijk</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -337,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +418,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -375,11 +443,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -694,80 +766,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329CFDCA-FEAF-40A1-9084-781E8EA489B2}">
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="40.77734375" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" customWidth="1"/>
-    <col min="16" max="17" width="30.44140625" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
-    <col min="20" max="20" width="20.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" customWidth="1"/>
-    <col min="23" max="23" width="24.77734375" customWidth="1"/>
-    <col min="24" max="24" width="19.77734375" customWidth="1"/>
-    <col min="30" max="30" width="17.21875" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1"/>
+    <col min="19" max="20" width="30.44140625" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" customWidth="1"/>
+    <col min="26" max="26" width="24.77734375" customWidth="1"/>
+    <col min="27" max="27" width="19.77734375" customWidth="1"/>
+    <col min="33" max="33" width="17.21875" customWidth="1"/>
+    <col min="35" max="35" width="18.6640625" customWidth="1"/>
+    <col min="36" max="36" width="16.33203125" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="X1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AA1" t="s">
@@ -788,383 +856,563 @@
       <c r="AH1" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AJ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="1"/>
+      <c r="W2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="3"/>
+      <c r="AA2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AG2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AJ2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>91</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>50</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>93</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
         <v>68</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>45</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AG4" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>64</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="P5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>46</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AK5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AK6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
+      <c r="P13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
+      <c r="P14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
         <v>75</v>
       </c>
-      <c r="H15" t="s">
+      <c r="P15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" t="s">
+      <c r="P16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
         <v>77</v>
       </c>
-      <c r="H17" t="s">
+      <c r="P17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="O18" t="s">
         <v>80</v>
       </c>
-      <c r="H18" t="s">
+      <c r="P18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
         <v>81</v>
       </c>
-      <c r="H19" t="s">
+      <c r="P19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" t="s">
         <v>85</v>
       </c>
-      <c r="H20" t="s">
+      <c r="P20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s">
         <v>89</v>
       </c>
-      <c r="H21" t="s">
+      <c r="P21" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E31" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
